--- a/P09/JADE_Scrum.xlsx
+++ b/P09/JADE_Scrum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waseem/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waseem/Documents/SchoolCode/cse1325/P09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73235AD-7E93-404B-97F8-8D2AFDA67448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB04E853-7D38-804B-8901-0C7E8ADF4A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="246">
   <si>
     <t>Product Name:</t>
   </si>
@@ -752,6 +752,33 @@
   </si>
   <si>
     <t>Create a Java constructor with a bufferedReader parameter</t>
+  </si>
+  <si>
+    <t>Create Person.java</t>
+  </si>
+  <si>
+    <t>Write Person(BufferedReader bufferedReader)</t>
+  </si>
+  <si>
+    <t>Write Person(String name, String phone)</t>
+  </si>
+  <si>
+    <t>Write Person.save(BufferedReader bufferedReader)</t>
+  </si>
+  <si>
+    <t>Override Person.toString()</t>
+  </si>
+  <si>
+    <t>Create Customer.java</t>
+  </si>
+  <si>
+    <t>Write Customer(String name, String phone)</t>
+  </si>
+  <si>
+    <t>Write Customer(BufferedReader bufferedReader)</t>
+  </si>
+  <si>
+    <t>Override Customer.toString()</t>
   </si>
 </sst>
 </file>
@@ -763,7 +790,7 @@
     <numFmt numFmtId="165" formatCode="mmm\ dd"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -833,6 +860,11 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2461,28 +2493,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4277,7 +4309,7 @@
   <dimension ref="A1:AMJ62"/>
   <sheetViews>
     <sheetView zoomScale="116" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -10227,8 +10259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -10332,7 +10364,7 @@
       </c>
       <c r="B7" s="23">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -10347,7 +10379,7 @@
       </c>
       <c r="B8" s="23">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -10365,11 +10397,11 @@
       </c>
       <c r="B9" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -10383,7 +10415,7 @@
       </c>
       <c r="B10" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -10401,7 +10433,7 @@
       </c>
       <c r="B11" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -10419,7 +10451,7 @@
       </c>
       <c r="B12" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -10437,7 +10469,7 @@
       </c>
       <c r="B13" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -10455,7 +10487,7 @@
       </c>
       <c r="B14" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -10501,75 +10533,115 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="D17" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="33"/>
+        <v>237</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="33"/>
+      <c r="B18" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="33"/>
+      <c r="B19" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="33"/>
+      <c r="D20" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
         <v>5</v>
       </c>
       <c r="B21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="33"/>
+      <c r="D21" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="33"/>
+      <c r="D22" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
         <v>7</v>
       </c>
       <c r="B23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="33"/>
+      <c r="D23" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
         <v>8</v>
       </c>
       <c r="B24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="33"/>
+      <c r="D24" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
         <v>9</v>
       </c>
       <c r="B25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
@@ -11172,6 +11244,7 @@
       <c r="E100" s="33"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task ID" prompt="This is just an arbitrary unique (per sprint) integer assigned to a task, used by the team to refer to that task. " sqref="A17:A100" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>0</formula1>

--- a/P09/JADE_Scrum.xlsx
+++ b/P09/JADE_Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waseem/Documents/SchoolCode/cse1325/P09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB04E853-7D38-804B-8901-0C7E8ADF4A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BBF1A7-02BC-FA4C-B727-11CE90515EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="258">
   <si>
     <t>Product Name:</t>
   </si>
@@ -779,6 +779,42 @@
   </si>
   <si>
     <t>Override Customer.toString()</t>
+  </si>
+  <si>
+    <t>Add View menu to menu bar</t>
+  </si>
+  <si>
+    <t>Add Customers menu item to view</t>
+  </si>
+  <si>
+    <t>Add Products menu item to view</t>
+  </si>
+  <si>
+    <t>Add Cutomers button to toolbar</t>
+  </si>
+  <si>
+    <t>Add Products button to toolbar</t>
+  </si>
+  <si>
+    <t>Add people array list to store.java</t>
+  </si>
+  <si>
+    <t>Implement Store.personToString</t>
+  </si>
+  <si>
+    <t>Implement Store.numberOfPeople</t>
+  </si>
+  <si>
+    <t>Implement Store.addPerson</t>
+  </si>
+  <si>
+    <t>Implement Store.peopleToString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement MainWin.onCustomersClick Actionlistener </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement MainWin.onProductsClick Actionlistener </t>
   </si>
 </sst>
 </file>
@@ -2493,28 +2529,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9079,7 +9115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -10259,8 +10295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -10364,7 +10400,7 @@
       </c>
       <c r="B7" s="23">
         <f>COUNTA(D17:D995)</f>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -10379,7 +10415,7 @@
       </c>
       <c r="B8" s="23">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C8" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -10397,11 +10433,11 @@
       </c>
       <c r="B9" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -10415,11 +10451,11 @@
       </c>
       <c r="B10" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -10433,7 +10469,7 @@
       </c>
       <c r="B11" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -10451,7 +10487,7 @@
       </c>
       <c r="B12" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -10469,7 +10505,7 @@
       </c>
       <c r="B13" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -10487,7 +10523,7 @@
       </c>
       <c r="B14" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -10575,7 +10611,9 @@
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="D20" s="31" t="s">
         <v>240</v>
       </c>
@@ -10587,7 +10625,9 @@
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="D21" s="31" t="s">
         <v>241</v>
       </c>
@@ -10599,7 +10639,9 @@
       <c r="A22">
         <v>6</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="D22" s="31" t="s">
         <v>242</v>
       </c>
@@ -10611,7 +10653,9 @@
       <c r="A23">
         <v>7</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="D23" s="31" t="s">
         <v>243</v>
       </c>
@@ -10623,7 +10667,9 @@
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="31"/>
+      <c r="B24" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="D24" s="31" t="s">
         <v>244</v>
       </c>
@@ -10635,7 +10681,9 @@
       <c r="A25">
         <v>9</v>
       </c>
-      <c r="B25" s="31"/>
+      <c r="B25" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="D25" s="31" t="s">
         <v>245</v>
       </c>
@@ -10647,96 +10695,164 @@
       <c r="A26">
         <v>10</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="33"/>
+      <c r="B26" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
         <v>11</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="33"/>
+      <c r="B27" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
         <v>12</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="33"/>
+      <c r="B28" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
         <v>13</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="33"/>
+      <c r="B29" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="33"/>
+      <c r="B30" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
         <v>15</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="33"/>
+      <c r="B31" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
         <v>16</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="33"/>
+      <c r="B32" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
         <v>17</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="33"/>
+      <c r="B33" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
         <v>18</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="33"/>
+      <c r="B34" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
         <v>19</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="33"/>
+      <c r="B35" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
         <v>20</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="D36" s="31"/>
+      <c r="B36" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>256</v>
+      </c>
       <c r="E36" s="33"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
         <v>21</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="D37" s="31"/>
+      <c r="B37" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>257</v>
+      </c>
       <c r="E37" s="33"/>
     </row>
     <row r="38" spans="1:5">
@@ -11250,15 +11366,15 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank until task is begun._x000a_Select &quot;In Work&quot; when started (for long tasks only)._x000a_Select Completed ONLY when this task is done._x000a_    Select &quot;Completed Day 1&quot; if finished on the first day, and_x000a_    similarly for &quot;Completed on Day 2&quot; et. al." sqref="E17:E100" xr:uid="{00000000-0002-0000-0400-000003000000}">
-      <formula1>"In Work,Completed Day 1,Completed Day 2,Completed Day 3,Completed Day 4,Completed Day 5,Completed Day 6,Completed Day 7,"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OPTIONAL" prompt="You may add any notes here that help understand the requirements and scope for this task" sqref="F17:F100" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D18:D100" xr:uid="{00000000-0002-0000-0400-000005000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank until task is begun._x000a_Select &quot;In Work&quot; when started (for long tasks only)._x000a_Select Completed ONLY when this task is done._x000a_    Select &quot;Completed Day 1&quot; if finished on the first day, and_x000a_    similarly for &quot;Completed on Day 2&quot; et. al." sqref="E17:E37 E40:E100" xr:uid="{00000000-0002-0000-0400-000003000000}">
+      <formula1>"In Work,Completed Day 1,Completed Day 2,Completed Day 3,Completed Day 4,Completed Day 5,Completed Day 6,Completed Day 7,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D18:D25 D31:D37 D40:D100" xr:uid="{00000000-0002-0000-0400-000005000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/P09/JADE_Scrum.xlsx
+++ b/P09/JADE_Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waseem/Documents/SchoolCode/cse1325/P09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BBF1A7-02BC-FA4C-B727-11CE90515EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6C0A00-A7A2-B447-B684-D4221E510D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2535,7 +2535,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -10295,8 +10295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:E39"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -10433,11 +10433,11 @@
       </c>
       <c r="B9" s="23">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -10455,7 +10455,7 @@
       </c>
       <c r="C10" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -10758,7 +10758,7 @@
         <v>255</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:5">

--- a/P09/JADE_Scrum.xlsx
+++ b/P09/JADE_Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waseem/Documents/SchoolCode/cse1325/P09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6C0A00-A7A2-B447-B684-D4221E510D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCFCC89-6443-DE41-B20A-3FDF1633B0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="261">
   <si>
     <t>Product Name:</t>
   </si>
@@ -784,15 +784,9 @@
     <t>Add View menu to menu bar</t>
   </si>
   <si>
-    <t>Add Customers menu item to view</t>
-  </si>
-  <si>
     <t>Add Products menu item to view</t>
   </si>
   <si>
-    <t>Add Cutomers button to toolbar</t>
-  </si>
-  <si>
     <t>Add Products button to toolbar</t>
   </si>
   <si>
@@ -811,10 +805,25 @@
     <t>Implement Store.peopleToString</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement MainWin.onCustomersClick Actionlistener </t>
-  </si>
-  <si>
     <t xml:space="preserve">Implement MainWin.onProductsClick Actionlistener </t>
+  </si>
+  <si>
+    <t>Add Customer menu item to Create</t>
+  </si>
+  <si>
+    <t>Add Customer button to toolbar</t>
+  </si>
+  <si>
+    <t>Add People button to toolbar</t>
+  </si>
+  <si>
+    <t>Add People menu item to view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement MainWin.onPeopleClick Actionlistener </t>
+  </si>
+  <si>
+    <t>Implement MainWin.onCreateCustomerClick Actionlistener</t>
   </si>
 </sst>
 </file>
@@ -2529,28 +2538,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10295,8 +10304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -10400,7 +10409,7 @@
       </c>
       <c r="B7" s="23">
         <f>COUNTA(D17:D995)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -10415,7 +10424,7 @@
       </c>
       <c r="B8" s="23">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -10433,7 +10442,7 @@
       </c>
       <c r="B9" s="23">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -10451,7 +10460,7 @@
       </c>
       <c r="B10" s="23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -10469,7 +10478,7 @@
       </c>
       <c r="B11" s="23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -10487,7 +10496,7 @@
       </c>
       <c r="B12" s="23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -10505,7 +10514,7 @@
       </c>
       <c r="B13" s="23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -10523,7 +10532,7 @@
       </c>
       <c r="B14" s="23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -10699,7 +10708,7 @@
         <v>68</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>197</v>
@@ -10713,7 +10722,7 @@
         <v>68</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>197</v>
@@ -10727,7 +10736,7 @@
         <v>68</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>197</v>
@@ -10741,7 +10750,7 @@
         <v>68</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>197</v>
@@ -10755,7 +10764,7 @@
         <v>68</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>199</v>
@@ -10783,7 +10792,7 @@
         <v>68</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>199</v>
@@ -10797,7 +10806,7 @@
         <v>68</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>199</v>
@@ -10811,7 +10820,7 @@
         <v>68</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E34" s="33" t="s">
         <v>199</v>
@@ -10825,7 +10834,7 @@
         <v>68</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E35" s="33" t="s">
         <v>199</v>
@@ -10839,7 +10848,7 @@
         <v>68</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E36" s="33"/>
     </row>
@@ -10851,7 +10860,7 @@
         <v>68</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E37" s="33"/>
     </row>
@@ -10860,7 +10869,9 @@
         <v>22</v>
       </c>
       <c r="B38" s="31"/>
-      <c r="D38" s="31"/>
+      <c r="D38" s="31" t="s">
+        <v>255</v>
+      </c>
       <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5">
@@ -10868,7 +10879,9 @@
         <v>23</v>
       </c>
       <c r="B39" s="31"/>
-      <c r="D39" s="31"/>
+      <c r="D39" s="31" t="s">
+        <v>256</v>
+      </c>
       <c r="E39" s="33"/>
     </row>
     <row r="40" spans="1:5">
@@ -10876,7 +10889,9 @@
         <v>24</v>
       </c>
       <c r="B40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="D40" s="31" t="s">
+        <v>260</v>
+      </c>
       <c r="E40" s="33"/>
     </row>
     <row r="41" spans="1:5">

--- a/P09/JADE_Scrum.xlsx
+++ b/P09/JADE_Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waseem/Documents/SchoolCode/cse1325/P09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCFCC89-6443-DE41-B20A-3FDF1633B0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1D2D31-87B8-3F4D-9EBB-1C623F9F2652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="267">
   <si>
     <t>Product Name:</t>
   </si>
@@ -824,6 +824,24 @@
   </si>
   <si>
     <t>Implement MainWin.onCreateCustomerClick Actionlistener</t>
+  </si>
+  <si>
+    <t>In Work</t>
+  </si>
+  <si>
+    <t>ShowConfirmDialog with array of components to add donut</t>
+  </si>
+  <si>
+    <t>ShowConfirmDialog with array of components to add java</t>
+  </si>
+  <si>
+    <t>Create Components array for new java</t>
+  </si>
+  <si>
+    <t>Create Components array for new donut</t>
+  </si>
+  <si>
+    <t>Implement adding shots int the new java unified dialog</t>
   </si>
 </sst>
 </file>
@@ -2538,28 +2556,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2774,7 +2792,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -2922,7 +2940,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -2996,7 +3014,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -3400,7 +3418,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Product Backlog Burn Chart</a:t>
@@ -3579,7 +3597,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Sprints</a:t>
@@ -3651,7 +3669,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Features Remaining at end of Sprint</a:t>
@@ -4353,8 +4371,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ62"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A21" zoomScale="116" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -10304,8 +10322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -10409,7 +10427,7 @@
       </c>
       <c r="B7" s="23">
         <f>COUNTA(D17:D995)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -10424,7 +10442,7 @@
       </c>
       <c r="B8" s="23">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -10442,7 +10460,7 @@
       </c>
       <c r="B9" s="23">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -10460,11 +10478,11 @@
       </c>
       <c r="B10" s="23">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C10" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -10478,11 +10496,11 @@
       </c>
       <c r="B11" s="23">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -10496,7 +10514,7 @@
       </c>
       <c r="B12" s="23">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -10514,11 +10532,11 @@
       </c>
       <c r="B13" s="23">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -10532,7 +10550,7 @@
       </c>
       <c r="B14" s="23">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -10823,7 +10841,7 @@
         <v>257</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -10837,7 +10855,7 @@
         <v>248</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -10850,7 +10868,9 @@
       <c r="D36" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="E36" s="33"/>
+      <c r="E36" s="33" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
@@ -10862,76 +10882,114 @@
       <c r="D37" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="E37" s="33"/>
+      <c r="E37" s="33" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
         <v>22</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="D38" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="E38" s="33"/>
+      <c r="E38" s="33" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
         <v>23</v>
       </c>
-      <c r="B39" s="31"/>
+      <c r="B39" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="D39" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="E39" s="33"/>
+      <c r="E39" s="33" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
         <v>24</v>
       </c>
-      <c r="B40" s="31"/>
+      <c r="B40" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="D40" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="E40" s="33"/>
+      <c r="E40" s="33" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
         <v>25</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="33"/>
+      <c r="B41" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
         <v>26</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="33"/>
+      <c r="B42" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
         <v>27</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="D43" s="31"/>
+      <c r="B43" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>264</v>
+      </c>
       <c r="E43" s="33"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
         <v>28</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="D44" s="31"/>
+      <c r="B44" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>263</v>
+      </c>
       <c r="E44" s="33"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
         <v>29</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="D45" s="31"/>
+      <c r="B45" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>266</v>
+      </c>
       <c r="E45" s="33"/>
     </row>
     <row r="46" spans="1:5">
@@ -11385,7 +11443,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank until task is begun._x000a_Select &quot;In Work&quot; when started (for long tasks only)._x000a_Select Completed ONLY when this task is done._x000a_    Select &quot;Completed Day 1&quot; if finished on the first day, and_x000a_    similarly for &quot;Completed on Day 2&quot; et. al." sqref="E17:E37 E40:E100" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank until task is begun._x000a_Select &quot;In Work&quot; when started (for long tasks only)._x000a_Select Completed ONLY when this task is done._x000a_    Select &quot;Completed Day 1&quot; if finished on the first day, and_x000a_    similarly for &quot;Completed on Day 2&quot; et. al." sqref="E17:E100" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"In Work,Completed Day 1,Completed Day 2,Completed Day 3,Completed Day 4,Completed Day 5,Completed Day 6,Completed Day 7,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13440,7 +13498,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="93" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>

--- a/P09/JADE_Scrum.xlsx
+++ b/P09/JADE_Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waseem/Documents/SchoolCode/cse1325/P09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1D2D31-87B8-3F4D-9EBB-1C623F9F2652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740BCAB8-A025-BF47-97F0-63D90B7282E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="268">
   <si>
     <t>Product Name:</t>
   </si>
@@ -842,6 +842,9 @@
   </si>
   <si>
     <t>Implement adding shots int the new java unified dialog</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 4</t>
   </si>
 </sst>
 </file>
@@ -1327,13 +1330,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2574,10 +2577,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4371,8 +4374,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ62"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="116" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="116" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -4640,11 +4643,11 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(F$24:F$67,"Finished in Sprint 4")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="10"/>
@@ -4659,7 +4662,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(F$24:F$67,"Finished in Sprint 5")</f>
@@ -4678,7 +4681,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(F$24:F$67,"Finished in Sprint 6")</f>
@@ -5105,7 +5108,9 @@
       <c r="E34" s="14">
         <v>4</v>
       </c>
-      <c r="F34" s="14"/>
+      <c r="F34" s="14" t="s">
+        <v>261</v>
+      </c>
       <c r="G34" s="18" t="s">
         <v>32</v>
       </c>
@@ -6149,7 +6154,9 @@
       <c r="E35" s="14">
         <v>4</v>
       </c>
-      <c r="F35" s="14"/>
+      <c r="F35" s="14" t="s">
+        <v>267</v>
+      </c>
       <c r="G35" s="18" t="s">
         <v>69</v>
       </c>
@@ -10322,8 +10329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A37" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -10532,11 +10539,11 @@
       </c>
       <c r="B13" s="23">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -10550,7 +10557,7 @@
       </c>
       <c r="B14" s="23">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14" s="23">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -10841,7 +10848,7 @@
         <v>257</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>261</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -10855,7 +10862,7 @@
         <v>248</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>261</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -10911,7 +10918,7 @@
         <v>256</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>261</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -10966,7 +10973,9 @@
       <c r="D43" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="E43" s="33"/>
+      <c r="E43" s="33" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
@@ -10978,7 +10987,9 @@
       <c r="D44" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="E44" s="33"/>
+      <c r="E44" s="33" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
@@ -10990,7 +11001,9 @@
       <c r="D45" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="E45" s="33"/>
+      <c r="E45" s="33" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
